--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -105,19 +105,19 @@
     <t>NPU03011</t>
   </si>
   <si>
-    <t>O2 sat.;Hb(aB)</t>
+    <t>Hb(Fe; O2-bind.; aB)—Oxygen(O2); mætn. = ?</t>
   </si>
   <si>
     <t>NPU21692</t>
   </si>
   <si>
-    <t>Puls;Hjerte</t>
+    <t>Hjerte—Systole; frekv. = ? × 1/min</t>
   </si>
   <si>
     <t>NPU03804</t>
   </si>
   <si>
-    <t>Legeme vægt; Pt</t>
+    <t>Pt—Legeme; masse = ? kg</t>
   </si>
   <si>
     <t/>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
+++ b/fhir/ValueSet-ehealth-device-measurement-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
